--- a/boardgames/seafall/advisors.xlsx
+++ b/boardgames/seafall/advisors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="advisors.txt" sheetId="1" r:id="rId1"/>
+    <sheet name="advisors" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,53 +27,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>reputation_cost</t>
+  </si>
+  <si>
+    <t>coin_cost</t>
+  </si>
+  <si>
+    <t>guild</t>
+  </si>
+  <si>
+    <t>buy_goods</t>
+  </si>
+  <si>
+    <t>sell_goods</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>raid</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
     <t>ability</t>
   </si>
   <si>
-    <t>reputation_cost</t>
-  </si>
-  <si>
-    <t>coin_cost</t>
-  </si>
-  <si>
-    <t>guild</t>
-  </si>
-  <si>
-    <t>buy_goods</t>
-  </si>
-  <si>
-    <t>sell_goods</t>
-  </si>
-  <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>raid</t>
-  </si>
-  <si>
-    <t>explore</t>
-  </si>
-  <si>
-    <t>research</t>
-  </si>
-  <si>
-    <t>upgrade</t>
-  </si>
-  <si>
-    <t>build</t>
-  </si>
-  <si>
     <t>The Dockmaster</t>
   </si>
   <si>
     <t>merchants</t>
   </si>
   <si>
+    <t>starter</t>
+  </si>
+  <si>
     <t>When taking the buy goods action, goods cost -1 gold each.</t>
   </si>
   <si>
@@ -200,21 +209,12 @@
     <t>You may use up to two fortune tokens at endeavors at dangerous sites.</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>starter</t>
-  </si>
-  <si>
     <t>The Caravan Driver</t>
   </si>
   <si>
     <t>dangerous waters</t>
   </si>
   <si>
-    <t>stage</t>
-  </si>
-  <si>
     <t>During a buy action, you may also buy goods from the supply for 6 gold each. Place these goods in your province warehouse.</t>
   </si>
   <si>
@@ -323,21 +323,21 @@
     <t>"+2" dice to an endeavor for every relic on your flagship.</t>
   </si>
   <si>
+    <t>The Archaeologist (male)</t>
+  </si>
+  <si>
     <t>"+2" dice to any endeavor made in a tomb.</t>
   </si>
   <si>
-    <t>The Archaeologist (male)</t>
-  </si>
-  <si>
     <t>The Archaeologist (female)</t>
   </si>
   <si>
+    <t>The Priest (male)</t>
+  </si>
+  <si>
     <t>During a repair action you may spend 2 gold to dismiss a curse card on that ship. You may do this multiple times.</t>
   </si>
   <si>
-    <t>The Priest (male)</t>
-  </si>
-  <si>
     <t>The Priest (female)</t>
   </si>
   <si>
@@ -438,6 +438,48 @@
   </si>
   <si>
     <t>You may build one extra structure with a build action. The Patron's expertise only applies to the first structure built.</t>
+  </si>
+  <si>
+    <t>octopus</t>
+  </si>
+  <si>
+    <t>The Arsonist</t>
+  </si>
+  <si>
+    <t>Gain one additional glory after any raid endeavor in which you plunder a structure.</t>
+  </si>
+  <si>
+    <t>glory</t>
+  </si>
+  <si>
+    <t>The Bloodthirsty Scoundrel</t>
+  </si>
+  <si>
+    <t>At the end of your turn, before exhausting the Bloodthirsty Scoundrel, take back two of your enmity tokens.</t>
+  </si>
+  <si>
+    <t>The Court Wizard</t>
+  </si>
+  <si>
+    <t>In an explore endeavor, each strong success counts as an extra success.</t>
+  </si>
+  <si>
+    <t>The Master of Munitions</t>
+  </si>
+  <si>
+    <t>Additional +4 raid when raiding a colony.</t>
+  </si>
+  <si>
+    <t>The Master Smuggler</t>
+  </si>
+  <si>
+    <t>If you buy goods, they are free. Roll dice equal to goods bought. For each blank and weak success, place an enmity token on a site you bought goods from.</t>
+  </si>
+  <si>
+    <t>The Tinker</t>
+  </si>
+  <si>
+    <t>After a sail action, you may remove one damage card from each of your ships.</t>
   </si>
 </sst>
 </file>
@@ -752,64 +794,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
       <c r="N1" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="O1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -818,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -845,18 +891,21 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -865,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -892,18 +941,21 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -912,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -939,18 +991,21 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -959,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -986,18 +1041,21 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1006,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1033,18 +1091,21 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1053,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1080,18 +1141,21 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1100,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1127,18 +1191,21 @@
         <v>-2</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1147,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1174,18 +1241,21 @@
         <v>-2</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1194,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1221,18 +1291,21 @@
         <v>-4</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1241,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1268,18 +1341,21 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1288,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1315,18 +1391,21 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1335,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1362,18 +1441,21 @@
         <v>-2</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1382,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1409,18 +1491,21 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1429,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1456,18 +1541,21 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1476,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1503,18 +1591,21 @@
         <v>-2</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1523,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1550,18 +1641,21 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1570,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1597,18 +1691,21 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1617,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1644,66 +1741,72 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
       <c r="B21">
         <v>1</v>
       </c>
@@ -1711,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1738,18 +1841,21 @@
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1758,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1785,16 +1891,19 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1805,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1832,16 +1941,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1852,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1879,16 +1991,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N24">
-        <v>2</v>
-      </c>
-      <c r="O24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -1899,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1926,16 +2041,19 @@
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N25">
-        <v>2</v>
-      </c>
-      <c r="O25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1946,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1973,16 +2091,19 @@
         <v>-2</v>
       </c>
       <c r="M26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N26">
-        <v>2</v>
-      </c>
-      <c r="O26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -1993,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2020,16 +2141,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2040,7 +2164,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2067,16 +2191,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2087,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2114,16 +2241,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N29">
-        <v>2</v>
-      </c>
-      <c r="O29" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -2134,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2161,16 +2291,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -2181,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2208,16 +2341,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="O31" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -2228,7 +2364,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2255,16 +2391,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -2275,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2302,16 +2441,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -2322,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2349,16 +2491,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N34">
-        <v>2</v>
-      </c>
-      <c r="O34" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2369,7 +2514,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2396,16 +2541,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N35">
-        <v>2</v>
-      </c>
-      <c r="O35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -2416,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2443,16 +2591,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N36">
-        <v>2</v>
-      </c>
-      <c r="O36" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -2463,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2490,16 +2641,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N37">
-        <v>2</v>
-      </c>
-      <c r="O37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -2510,7 +2664,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2540,13 +2694,16 @@
         <v>94</v>
       </c>
       <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
         <v>3</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -2557,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2587,15 +2744,18 @@
         <v>94</v>
       </c>
       <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
         <v>3</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2604,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2634,13 +2794,16 @@
         <v>94</v>
       </c>
       <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
         <v>3</v>
       </c>
-      <c r="O40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2651,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2681,15 +2844,18 @@
         <v>94</v>
       </c>
       <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
         <v>3</v>
       </c>
-      <c r="O41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -2698,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2728,13 +2894,16 @@
         <v>94</v>
       </c>
       <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>3</v>
       </c>
-      <c r="O42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -2745,7 +2914,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2775,13 +2944,16 @@
         <v>94</v>
       </c>
       <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
         <v>3</v>
       </c>
-      <c r="O43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2792,7 +2964,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2822,13 +2994,16 @@
         <v>105</v>
       </c>
       <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
         <v>4</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -2839,7 +3014,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2869,13 +3044,16 @@
         <v>105</v>
       </c>
       <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
         <v>4</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -2886,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2916,13 +3094,16 @@
         <v>105</v>
       </c>
       <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>4</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>111</v>
       </c>
@@ -2933,7 +3114,7 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2963,13 +3144,16 @@
         <v>105</v>
       </c>
       <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
         <v>4</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -2980,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -3010,13 +3194,16 @@
         <v>105</v>
       </c>
       <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
         <v>4</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -3027,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -3057,13 +3244,16 @@
         <v>105</v>
       </c>
       <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
         <v>4</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -3074,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3104,13 +3294,16 @@
         <v>105</v>
       </c>
       <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
         <v>4</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -3121,7 +3314,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -3151,13 +3344,16 @@
         <v>105</v>
       </c>
       <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
         <v>4</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -3168,7 +3364,7 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3198,13 +3394,16 @@
         <v>105</v>
       </c>
       <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
         <v>4</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -3215,7 +3414,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -3245,13 +3444,16 @@
         <v>105</v>
       </c>
       <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
         <v>4</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -3262,7 +3464,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3292,13 +3494,16 @@
         <v>105</v>
       </c>
       <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
         <v>4</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -3309,7 +3514,7 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3339,13 +3544,16 @@
         <v>105</v>
       </c>
       <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
         <v>4</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -3356,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3386,13 +3594,16 @@
         <v>105</v>
       </c>
       <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
         <v>4</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -3403,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3433,13 +3644,16 @@
         <v>105</v>
       </c>
       <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
         <v>4</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -3450,7 +3664,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3480,13 +3694,16 @@
         <v>105</v>
       </c>
       <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
         <v>4</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -3497,7 +3714,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3527,10 +3744,313 @@
         <v>105</v>
       </c>
       <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
         <v>4</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>137</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>5</v>
+      </c>
+      <c r="P60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>137</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
+      </c>
+      <c r="P61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>137</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>5</v>
+      </c>
+      <c r="P62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>137</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
+      <c r="P63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>137</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>-4</v>
+      </c>
+      <c r="L65">
+        <v>-6</v>
+      </c>
+      <c r="M65" t="s">
+        <v>137</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>5</v>
+      </c>
+      <c r="P65" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/boardgames/seafall/advisors.xlsx
+++ b/boardgames/seafall/advisors.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -480,6 +480,57 @@
   </si>
   <si>
     <t>After a sail action, you may remove one damage card from each of your ships.</t>
+  </si>
+  <si>
+    <t>The Bringer of Storms</t>
+  </si>
+  <si>
+    <t>cryptic eye</t>
+  </si>
+  <si>
+    <t>When Bringer of Storms becomes your active advisor, exhaust an advisor ina nother province's council room. You may explore any dangerous waters space to recover a lost relic. The defense of the endeavor is 8 and it is a dangerous site. You gain glory as normal for the endeavor.</t>
+  </si>
+  <si>
+    <t>The Gatherer of Brethren</t>
+  </si>
+  <si>
+    <t>When Gatherer of Brethren becomes your active advisor, shine the light of truth on advisors in the forum. You must hire all society members (including public ones) for free. If you successfully raid a ship, you may gain a ship upgrade worth 10 gold from the supply.</t>
+  </si>
+  <si>
+    <t>The Holder of Secrets</t>
+  </si>
+  <si>
+    <t>When Holder of Secrets becomes your active advisor, you must take an advisor from a province's council room (if it doesn't have enmity on it). Place two enmity tokens on that council room. If you raid a ship carrying a relic, +3 dice to the endeavor.</t>
+  </si>
+  <si>
+    <t>The Keeper of Lore</t>
+  </si>
+  <si>
+    <t>When Keeper of Lore becomes your active advisor, draw the top four cards of the Research deck and keep two.</t>
+  </si>
+  <si>
+    <t>The Master of Whispers</t>
+  </si>
+  <si>
+    <t>When Masters of Whispers becomes your active advisor, you must take one gold from each other province's vault. Any goods you buy this turn immediately go to any warehouse you control.</t>
+  </si>
+  <si>
+    <t>The Seeker of Answers</t>
+  </si>
+  <si>
+    <t>When Seeker of Answers becomes your active advisor, you must take an advisor from a province's council room (if it doesn't have enmity on it). Place two enmity tokens on that council room. You may use as many goods as you want to discount a build action this turn.</t>
+  </si>
+  <si>
+    <t>The Ninth Initiate</t>
+  </si>
+  <si>
+    <t>When the Ninth Initiate becomes your active advisor, shine the light of truth on advisors in the forum. You must hire all private society members for free. You may take a card from any treasure room that doesn't have enmity on it. Place four enmity on that treasure room. This is not a raid or endeavor.</t>
+  </si>
+  <si>
+    <t>The Walker of Paths</t>
+  </si>
+  <si>
+    <t>When Walker of Paths becomes your active advisor, shine the light of truth on advisors in the forum. You may hire all society members (including public ones) for a total of one reputation. You may explore any atoll to recover a lost relic. The defense of the endeavor is 8 and it is a dangerous site. You gain glory for the endeavor.</t>
   </si>
 </sst>
 </file>
@@ -794,11 +845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4053,6 +4104,406 @@
         <v>150</v>
       </c>
     </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>152</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>152</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>6</v>
+      </c>
+      <c r="P67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>152</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>6</v>
+      </c>
+      <c r="P68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>-10</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>152</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>6</v>
+      </c>
+      <c r="P69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>152</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>6</v>
+      </c>
+      <c r="P70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-2</v>
+      </c>
+      <c r="M71" t="s">
+        <v>152</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>6</v>
+      </c>
+      <c r="P71" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>152</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>6</v>
+      </c>
+      <c r="P72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>152</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>6</v>
+      </c>
+      <c r="P73" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/boardgames/seafall/advisors.xlsx
+++ b/boardgames/seafall/advisors.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="20100" yWindow="4320" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="advisors" sheetId="1" r:id="rId1"/>
@@ -848,8 +848,8 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
